--- a/capiq_data/in_process_data/IQ33174798.xlsx
+++ b/capiq_data/in_process_data/IQ33174798.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779F1E7-6ED6-49F8-ABCB-BFF01CDB8315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B03AEA5-44F7-4C0C-B5B3-6B4175094027}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d750f606-49cf-4c16-ba2f-7a1d35aac957"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d6cb6ecd-9f13-41a1-9f26-6a92a8895253"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$45</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$45</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$45</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$45</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$45</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$45</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$45</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$45</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$45</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$45</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$45</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$45</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$45</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$45</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$45</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$45</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$45</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$45</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$45</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$45</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$45</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$45</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$45</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$45</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$45</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$45</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,76 +742,76 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>40268</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>16.899999999999999</v>
+        <v>-14.1</v>
       </c>
       <c r="D2">
-        <v>843.7</v>
+        <v>698.7</v>
       </c>
       <c r="E2">
-        <v>374.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>271</v>
+        <v>219.8</v>
       </c>
       <c r="G2">
-        <v>1466</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4257.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>252.8</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3230.8</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-7.1</v>
       </c>
       <c r="N2">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4314.3</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3233.8</v>
+        <v>3250</v>
       </c>
       <c r="Q2">
-        <v>3.1</v>
+        <v>-11.1</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>40268</v>
       </c>
       <c r="S2">
-        <v>16100</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-56.7</v>
+        <v>-159.30000000000001</v>
       </c>
       <c r="U2">
-        <v>60.7</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>82.8</v>
+        <v>-61.8</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-52.3</v>
+        <v>58.9</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,42 +820,42 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>16.899999999999999</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>40359</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-10.5</v>
+        <v>33.6</v>
       </c>
       <c r="D3">
-        <v>714.8</v>
+        <v>878</v>
       </c>
       <c r="E3">
-        <v>338.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>210.5</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="G3">
-        <v>913.8</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3712.7</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>237.2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>58.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>76.3</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,37 +864,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>540.9</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1101.2</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>134.5</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>40359</v>
       </c>
       <c r="S3">
-        <v>16600</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2611.5</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>67.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-67.900000000000006</v>
+        <v>85</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>84.9</v>
+        <v>-73.7</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +903,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-10.5</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>40451</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>43.7</v>
+        <v>27.4</v>
       </c>
       <c r="D4">
-        <v>889.7</v>
+        <v>813.1</v>
       </c>
       <c r="E4">
-        <v>410.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>291.3</v>
+        <v>271.8</v>
       </c>
       <c r="G4">
-        <v>1042.8</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3831.4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>282.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>69.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +947,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>612.1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1164.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>127.7</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>40451</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2667.3</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>73.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>58.2</v>
+        <v>32.9</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-39.6</v>
+        <v>-14.3</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +986,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>43.7</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>40543</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>2.2000000000000002</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D5">
-        <v>848</v>
+        <v>843.7</v>
       </c>
       <c r="E5">
-        <v>391.8</v>
+        <v>374.2</v>
       </c>
       <c r="F5">
-        <v>257.2</v>
+        <v>271</v>
       </c>
       <c r="G5">
-        <v>1015.1</v>
+        <v>1466</v>
       </c>
       <c r="H5">
-        <v>3840.9</v>
+        <v>4257.6000000000004</v>
       </c>
       <c r="I5">
-        <v>258.39999999999998</v>
+        <v>252.8</v>
       </c>
       <c r="J5">
-        <v>16.8</v>
+        <v>3230.8</v>
       </c>
       <c r="K5">
-        <v>59.7</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1030,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1146.2</v>
+        <v>576.5</v>
       </c>
       <c r="O5">
-        <v>1712.5</v>
+        <v>4314.3</v>
       </c>
       <c r="P5">
-        <v>76.5</v>
+        <v>3233.8</v>
       </c>
       <c r="Q5">
-        <v>54.5</v>
+        <v>3.1</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>40543</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="T5">
-        <v>2128.4</v>
+        <v>-56.7</v>
       </c>
       <c r="U5">
-        <v>127.6</v>
+        <v>60.7</v>
       </c>
       <c r="V5">
-        <v>32.700000000000003</v>
+        <v>82.8</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>43.6</v>
+        <v>-52.3</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1069,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>2.2000000000000002</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>40633</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-71</v>
+        <v>-10.5</v>
       </c>
       <c r="D6">
-        <v>876.1</v>
+        <v>714.8</v>
       </c>
       <c r="E6">
-        <v>346.1</v>
+        <v>338.4</v>
       </c>
       <c r="F6">
-        <v>252.8</v>
+        <v>210.5</v>
       </c>
       <c r="G6">
-        <v>953.5</v>
+        <v>913.8</v>
       </c>
       <c r="H6">
-        <v>3637.9</v>
+        <v>3712.7</v>
       </c>
       <c r="I6">
-        <v>260.7</v>
+        <v>237.2</v>
       </c>
       <c r="J6">
-        <v>389.3</v>
+        <v>58.2</v>
       </c>
       <c r="K6">
-        <v>3.8</v>
+        <v>76.3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1113,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>597.79999999999995</v>
+        <v>540.9</v>
       </c>
       <c r="O6">
-        <v>1513.4</v>
+        <v>1101.2</v>
       </c>
       <c r="P6">
-        <v>410.6</v>
+        <v>134.5</v>
       </c>
       <c r="Q6">
-        <v>-6.8</v>
+        <v>7.2</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>40633</v>
       </c>
       <c r="S6">
-        <v>16100</v>
+        <v>16600</v>
       </c>
       <c r="T6">
-        <v>2124.5</v>
+        <v>2611.5</v>
       </c>
       <c r="U6">
-        <v>120.8</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="V6">
-        <v>152.4</v>
+        <v>-67.900000000000006</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-132.4</v>
+        <v>84.9</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1152,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>-71</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>40724</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>12.5</v>
+        <v>43.7</v>
       </c>
       <c r="D7">
-        <v>798.8</v>
+        <v>889.7</v>
       </c>
       <c r="E7">
-        <v>379.3</v>
+        <v>410.1</v>
       </c>
       <c r="F7">
-        <v>246.8</v>
+        <v>291.3</v>
       </c>
       <c r="G7">
-        <v>973.9</v>
+        <v>1042.8</v>
       </c>
       <c r="H7">
-        <v>3647.5</v>
+        <v>3831.4</v>
       </c>
       <c r="I7">
-        <v>254.7</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="J7">
-        <v>409.3</v>
+        <v>57.8</v>
       </c>
       <c r="K7">
-        <v>4.3</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>516.9</v>
+        <v>612.1</v>
       </c>
       <c r="O7">
-        <v>1464</v>
+        <v>1164.0999999999999</v>
       </c>
       <c r="P7">
-        <v>431.1</v>
+        <v>127.7</v>
       </c>
       <c r="Q7">
-        <v>-0.2</v>
+        <v>5.2</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>40724</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2183.5</v>
+        <v>2667.3</v>
       </c>
       <c r="U7">
-        <v>120.6</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="V7">
-        <v>-43.9</v>
+        <v>58.2</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>56.7</v>
+        <v>-39.6</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1235,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>12.5</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40816</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>47.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8">
-        <v>935.3</v>
+        <v>848</v>
       </c>
       <c r="E8">
-        <v>405.2</v>
+        <v>391.8</v>
       </c>
       <c r="F8">
-        <v>317.39999999999998</v>
+        <v>257.2</v>
       </c>
       <c r="G8">
-        <v>1068.0999999999999</v>
+        <v>1015.1</v>
       </c>
       <c r="H8">
-        <v>3726</v>
+        <v>3840.9</v>
       </c>
       <c r="I8">
-        <v>287.8</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="J8">
-        <v>339.3</v>
+        <v>16.8</v>
       </c>
       <c r="K8">
-        <v>4.5999999999999996</v>
+        <v>59.7</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1279,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>596.4</v>
+        <v>1146.2</v>
       </c>
       <c r="O8">
-        <v>1475.8</v>
+        <v>1712.5</v>
       </c>
       <c r="P8">
-        <v>361.4</v>
+        <v>76.5</v>
       </c>
       <c r="Q8">
-        <v>26.6</v>
+        <v>54.5</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40816</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2250.1999999999998</v>
+        <v>2128.4</v>
       </c>
       <c r="U8">
-        <v>147.19999999999999</v>
+        <v>127.6</v>
       </c>
       <c r="V8">
-        <v>96.4</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-53.8</v>
+        <v>43.6</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1318,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>47.8</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40908</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>-71</v>
       </c>
       <c r="D9">
-        <v>909.1</v>
+        <v>876.1</v>
       </c>
       <c r="E9">
-        <v>407.1</v>
+        <v>346.1</v>
       </c>
       <c r="F9">
-        <v>312</v>
+        <v>252.8</v>
       </c>
       <c r="G9">
-        <v>1138.4000000000001</v>
+        <v>953.5</v>
       </c>
       <c r="H9">
-        <v>3784.5</v>
+        <v>3637.9</v>
       </c>
       <c r="I9">
-        <v>253.5</v>
+        <v>260.7</v>
       </c>
       <c r="J9">
-        <v>339.3</v>
+        <v>389.3</v>
       </c>
       <c r="K9">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1356,34 +1365,34 @@
         <v>597.79999999999995</v>
       </c>
       <c r="O9">
-        <v>1450.2</v>
+        <v>1513.4</v>
       </c>
       <c r="P9">
-        <v>344.6</v>
+        <v>410.6</v>
       </c>
       <c r="Q9">
-        <v>68.900000000000006</v>
+        <v>-6.8</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40908</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="T9">
-        <v>2334.3000000000002</v>
+        <v>2124.5</v>
       </c>
       <c r="U9">
-        <v>216.1</v>
+        <v>120.8</v>
       </c>
       <c r="V9">
-        <v>66.900000000000006</v>
+        <v>152.4</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>8.3000000000000007</v>
+        <v>-132.4</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,81 +1401,81 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>40</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40999</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>18.399999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="D10">
-        <v>947.9</v>
+        <v>798.8</v>
       </c>
       <c r="E10">
-        <v>381.7</v>
+        <v>379.3</v>
       </c>
       <c r="F10">
-        <v>299.3</v>
+        <v>246.8</v>
       </c>
       <c r="G10">
-        <v>1227.9000000000001</v>
+        <v>973.9</v>
       </c>
       <c r="H10">
-        <v>3873.9</v>
+        <v>3647.5</v>
       </c>
       <c r="I10">
-        <v>287</v>
+        <v>254.7</v>
       </c>
       <c r="J10">
-        <v>297.5</v>
+        <v>409.3</v>
       </c>
       <c r="K10">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="N10">
-        <v>632.4</v>
+        <v>516.9</v>
       </c>
       <c r="O10">
-        <v>1489.2</v>
+        <v>1464</v>
       </c>
       <c r="P10">
-        <v>325.5</v>
+        <v>431.1</v>
       </c>
       <c r="Q10">
-        <v>119.9</v>
+        <v>-0.2</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40999</v>
       </c>
       <c r="S10">
-        <v>16100</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2384.6999999999998</v>
+        <v>2183.5</v>
       </c>
       <c r="U10">
-        <v>336</v>
+        <v>120.6</v>
       </c>
       <c r="V10">
-        <v>163.4</v>
+        <v>-43.9</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>4.5</v>
+        <v>56.7</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,42 +1484,42 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>18.399999999999999</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>41090</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>37.299999999999997</v>
+        <v>47.8</v>
       </c>
       <c r="D11">
-        <v>890</v>
+        <v>935.3</v>
       </c>
       <c r="E11">
-        <v>429.1</v>
+        <v>405.2</v>
       </c>
       <c r="F11">
-        <v>300.2</v>
+        <v>317.39999999999998</v>
       </c>
       <c r="G11">
-        <v>1199.2</v>
+        <v>1068.0999999999999</v>
       </c>
       <c r="H11">
-        <v>3823.8</v>
+        <v>3726</v>
       </c>
       <c r="I11">
-        <v>300.89999999999998</v>
+        <v>287.8</v>
       </c>
       <c r="J11">
-        <v>297.5</v>
+        <v>339.3</v>
       </c>
       <c r="K11">
-        <v>6.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,37 +1528,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>559.70000000000005</v>
+        <v>596.4</v>
       </c>
       <c r="O11">
-        <v>1362.6</v>
+        <v>1475.8</v>
       </c>
       <c r="P11">
-        <v>326.39999999999998</v>
+        <v>361.4</v>
       </c>
       <c r="Q11">
-        <v>-77.099999999999994</v>
+        <v>26.6</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>41090</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2461.1999999999998</v>
+        <v>2250.1999999999998</v>
       </c>
       <c r="U11">
-        <v>258.89999999999998</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="V11">
-        <v>-72.5</v>
+        <v>96.4</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>9.9</v>
+        <v>-53.8</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1567,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>37.299999999999997</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>41182</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>909.1</v>
       </c>
       <c r="E12">
-        <v>499.8</v>
+        <v>407.1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="G12">
-        <v>1203.5999999999999</v>
+        <v>1138.4000000000001</v>
       </c>
       <c r="H12">
-        <v>4065.4</v>
+        <v>3784.5</v>
       </c>
       <c r="I12">
-        <v>350.1</v>
+        <v>253.5</v>
       </c>
       <c r="J12">
-        <v>357.5</v>
+        <v>339.3</v>
       </c>
       <c r="K12">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1611,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>671.7</v>
+        <v>597.79999999999995</v>
       </c>
       <c r="O12">
-        <v>1537</v>
+        <v>1450.2</v>
       </c>
       <c r="P12">
-        <v>386.1</v>
+        <v>344.6</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>41182</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2528.4</v>
+        <v>2334.3000000000002</v>
       </c>
       <c r="U12">
-        <v>123.6</v>
+        <v>216.1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1650,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>41274</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>64.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D13">
-        <v>1045</v>
+        <v>947.9</v>
       </c>
       <c r="E13">
-        <v>517.70000000000005</v>
+        <v>381.7</v>
       </c>
       <c r="F13">
-        <v>358.9</v>
+        <v>299.3</v>
       </c>
       <c r="G13">
-        <v>1273.5999999999999</v>
+        <v>1227.9000000000001</v>
       </c>
       <c r="H13">
-        <v>4119.3</v>
+        <v>3873.9</v>
       </c>
       <c r="I13">
-        <v>344.4</v>
+        <v>287</v>
       </c>
       <c r="J13">
-        <v>350</v>
+        <v>297.5</v>
       </c>
       <c r="K13">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1694,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>707.9</v>
+        <v>632.4</v>
       </c>
       <c r="O13">
-        <v>1565.3</v>
+        <v>1489.2</v>
       </c>
       <c r="P13">
-        <v>355.6</v>
+        <v>325.5</v>
       </c>
       <c r="Q13">
-        <v>33.4</v>
+        <v>119.9</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>41274</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="T13">
-        <v>2554</v>
+        <v>2384.6999999999998</v>
       </c>
       <c r="U13">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="V13">
-        <v>120.3</v>
+        <v>163.4</v>
       </c>
       <c r="W13">
-        <v>-16.7</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-62.1</v>
+        <v>4.5</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1733,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>64.2</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>41364</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="E14">
-        <v>402.8</v>
+        <v>429.1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>300.2</v>
       </c>
       <c r="G14">
-        <v>1327.4</v>
+        <v>1199.2</v>
       </c>
       <c r="H14">
-        <v>4178.1000000000004</v>
+        <v>3823.8</v>
       </c>
       <c r="I14">
-        <v>314.8</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="J14">
-        <v>350</v>
+        <v>297.5</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1777,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>738.7</v>
+        <v>559.70000000000005</v>
       </c>
       <c r="O14">
-        <v>1525</v>
+        <v>1362.6</v>
       </c>
       <c r="P14">
-        <v>356</v>
+        <v>326.39999999999998</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-77.099999999999994</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>41364</v>
       </c>
       <c r="S14">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2653.1</v>
+        <v>2461.1999999999998</v>
       </c>
       <c r="U14">
-        <v>241.4</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>-72.5</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1816,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>41455</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>40.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>889.1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>482.9</v>
+        <v>499.8</v>
       </c>
       <c r="F15">
-        <v>295.3</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1264.7</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="H15">
-        <v>4106.8</v>
+        <v>4065.4</v>
       </c>
       <c r="I15">
-        <v>319.8</v>
+        <v>350.1</v>
       </c>
       <c r="J15">
-        <v>475</v>
+        <v>357.5</v>
       </c>
       <c r="K15">
-        <v>9.6999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>566.9</v>
+        <v>671.7</v>
       </c>
       <c r="O15">
-        <v>1466.8</v>
+        <v>1537</v>
       </c>
       <c r="P15">
-        <v>484.7</v>
+        <v>386.1</v>
       </c>
       <c r="Q15">
-        <v>-117.2</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>41455</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2640</v>
+        <v>2528.4</v>
       </c>
       <c r="U15">
-        <v>124.2</v>
+        <v>123.6</v>
       </c>
       <c r="V15">
-        <v>-156.6</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>-19.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +1899,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>40.799999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>41547</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>93.3</v>
+        <v>64.2</v>
       </c>
       <c r="D16">
-        <v>1027.2</v>
+        <v>1045</v>
       </c>
       <c r="E16">
-        <v>535.29999999999995</v>
+        <v>517.70000000000005</v>
       </c>
       <c r="F16">
-        <v>361.2</v>
+        <v>358.9</v>
       </c>
       <c r="G16">
-        <v>1337.1</v>
+        <v>1273.5999999999999</v>
       </c>
       <c r="H16">
-        <v>4190.1000000000004</v>
+        <v>4119.3</v>
       </c>
       <c r="I16">
-        <v>337.7</v>
+        <v>344.4</v>
       </c>
       <c r="J16">
-        <v>595</v>
+        <v>350</v>
       </c>
       <c r="K16">
-        <v>10.1</v>
+        <v>5.6</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +1943,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>644.9</v>
+        <v>707.9</v>
       </c>
       <c r="O16">
-        <v>1658.5</v>
+        <v>1565.3</v>
       </c>
       <c r="P16">
-        <v>605.1</v>
+        <v>355.6</v>
       </c>
       <c r="Q16">
-        <v>20.8</v>
+        <v>33.4</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>41547</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2531.6</v>
+        <v>2554</v>
       </c>
       <c r="U16">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="V16">
-        <v>125.9</v>
+        <v>120.3</v>
       </c>
       <c r="W16">
-        <v>-19.600000000000001</v>
+        <v>-16.7</v>
       </c>
       <c r="X16">
-        <v>-79.099999999999994</v>
+        <v>-62.1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,12 +1982,12 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>93.3</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>41639</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1987,28 +1996,28 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1057.7</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>534.5</v>
+        <v>402.8</v>
       </c>
       <c r="F17">
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1362.9</v>
+        <v>1327.4</v>
       </c>
       <c r="H17">
-        <v>4081.2</v>
+        <v>4178.1000000000004</v>
       </c>
       <c r="I17">
-        <v>341.4</v>
+        <v>314.8</v>
       </c>
       <c r="J17">
-        <v>653.79999999999995</v>
+        <v>350</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,28 +2026,28 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>710.2</v>
+        <v>738.7</v>
       </c>
       <c r="O17">
-        <v>1740.6</v>
+        <v>1525</v>
       </c>
       <c r="P17">
-        <v>683.5</v>
+        <v>356</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>41639</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="T17">
-        <v>2340.6</v>
+        <v>2653.1</v>
       </c>
       <c r="U17">
-        <v>175.1</v>
+        <v>241.4</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2056,81 +2065,81 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>41729</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>45.1</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D18">
-        <v>1039.5999999999999</v>
+        <v>889.1</v>
       </c>
       <c r="E18">
-        <v>458.9</v>
+        <v>482.9</v>
       </c>
       <c r="F18">
-        <v>342.1</v>
+        <v>295.3</v>
       </c>
       <c r="G18">
-        <v>1299.0999999999999</v>
+        <v>1264.7</v>
       </c>
       <c r="H18">
-        <v>4052.9</v>
+        <v>4106.8</v>
       </c>
       <c r="I18">
-        <v>333.8</v>
+        <v>319.8</v>
       </c>
       <c r="J18">
-        <v>643.70000000000005</v>
+        <v>475</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="N18">
-        <v>699.6</v>
+        <v>566.9</v>
       </c>
       <c r="O18">
-        <v>1789.8</v>
+        <v>1466.8</v>
       </c>
       <c r="P18">
-        <v>670</v>
+        <v>484.7</v>
       </c>
       <c r="Q18">
-        <v>16.8</v>
+        <v>-117.2</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>41729</v>
       </c>
       <c r="S18">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2263.1</v>
+        <v>2640</v>
       </c>
       <c r="U18">
-        <v>191.9</v>
+        <v>124.2</v>
       </c>
       <c r="V18">
-        <v>143.5</v>
+        <v>-156.6</v>
       </c>
       <c r="W18">
-        <v>-20</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="X18">
-        <v>-50.2</v>
+        <v>62</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2148,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>45.1</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41820</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>93.3</v>
       </c>
       <c r="D19">
-        <v>950.8</v>
+        <v>1027.2</v>
       </c>
       <c r="E19">
-        <v>477.2</v>
+        <v>535.29999999999995</v>
       </c>
       <c r="F19">
-        <v>316.89999999999998</v>
+        <v>361.2</v>
       </c>
       <c r="G19">
-        <v>1336.5</v>
+        <v>1337.1</v>
       </c>
       <c r="H19">
-        <v>4085.3</v>
+        <v>4190.1000000000004</v>
       </c>
       <c r="I19">
-        <v>327.39999999999998</v>
+        <v>337.7</v>
       </c>
       <c r="J19">
-        <v>733.7</v>
+        <v>595</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>609.1</v>
+        <v>644.9</v>
       </c>
       <c r="O19">
-        <v>1786.7</v>
+        <v>1658.5</v>
       </c>
       <c r="P19">
-        <v>760</v>
+        <v>605.1</v>
       </c>
       <c r="Q19">
-        <v>-12.5</v>
+        <v>20.8</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41820</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2298.6</v>
+        <v>2531.6</v>
       </c>
       <c r="U19">
-        <v>179.4</v>
+        <v>145</v>
       </c>
       <c r="V19">
-        <v>-66.7</v>
+        <v>125.9</v>
       </c>
       <c r="W19">
-        <v>-22.3</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="X19">
-        <v>90.4</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2231,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>40</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41912</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>79.7</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1165.0999999999999</v>
+        <v>1057.7</v>
       </c>
       <c r="E20">
-        <v>573.5</v>
+        <v>534.5</v>
       </c>
       <c r="F20">
-        <v>410.4</v>
+        <v>368.4</v>
       </c>
       <c r="G20">
-        <v>1529.9</v>
+        <v>1362.9</v>
       </c>
       <c r="H20">
-        <v>4966.5</v>
+        <v>4081.2</v>
       </c>
       <c r="I20">
-        <v>352.6</v>
+        <v>341.4</v>
       </c>
       <c r="J20">
-        <v>1389.8</v>
+        <v>653.79999999999995</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>682.3</v>
+        <v>710.2</v>
       </c>
       <c r="O20">
-        <v>2596.6999999999998</v>
+        <v>1740.6</v>
       </c>
       <c r="P20">
-        <v>1389.8</v>
+        <v>683.5</v>
       </c>
       <c r="Q20">
-        <v>44.1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41912</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2369.8000000000002</v>
+        <v>2340.6</v>
       </c>
       <c r="U20">
-        <v>223.5</v>
+        <v>175.1</v>
       </c>
       <c r="V20">
-        <v>122.1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>-22.3</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>596.9</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2314,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>79.7</v>
+        <v>-21.1</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>42004</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>45.1</v>
       </c>
       <c r="D21">
-        <v>1238.8</v>
+        <v>1039.5999999999999</v>
       </c>
       <c r="E21">
-        <v>557</v>
+        <v>458.9</v>
       </c>
       <c r="F21">
-        <v>437.1</v>
+        <v>342.1</v>
       </c>
       <c r="G21">
-        <v>1623.4</v>
+        <v>1299.0999999999999</v>
       </c>
       <c r="H21">
-        <v>5082.2</v>
+        <v>4052.9</v>
       </c>
       <c r="I21">
-        <v>353.6</v>
+        <v>333.8</v>
       </c>
       <c r="J21">
-        <v>1337.6</v>
+        <v>643.70000000000005</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2358,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>777.7</v>
+        <v>699.6</v>
       </c>
       <c r="O21">
-        <v>2677.9</v>
+        <v>1789.8</v>
       </c>
       <c r="P21">
-        <v>1341.4</v>
+        <v>670</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>42004</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="T21">
-        <v>2404.3000000000002</v>
+        <v>2263.1</v>
       </c>
       <c r="U21">
-        <v>350.6</v>
+        <v>191.9</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>143.5</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>-50.2</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,81 +2397,81 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>107.5</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>42094</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>87.8</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>1224.7</v>
+        <v>950.8</v>
       </c>
       <c r="E22">
-        <v>502.6</v>
+        <v>477.2</v>
       </c>
       <c r="F22">
-        <v>422.9</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="G22">
-        <v>1418</v>
+        <v>1336.5</v>
       </c>
       <c r="H22">
-        <v>4875.7</v>
+        <v>4085.3</v>
       </c>
       <c r="I22">
-        <v>344.2</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="J22">
-        <v>1168.7</v>
+        <v>733.7</v>
       </c>
       <c r="K22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="N22">
-        <v>757.9</v>
+        <v>609.1</v>
       </c>
       <c r="O22">
-        <v>2421.9</v>
+        <v>1786.7</v>
       </c>
       <c r="P22">
-        <v>1169.5</v>
+        <v>760</v>
       </c>
       <c r="Q22">
-        <v>-112.1</v>
+        <v>-12.5</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>42094</v>
       </c>
       <c r="S22">
-        <v>21400</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2453.8000000000002</v>
+        <v>2298.6</v>
       </c>
       <c r="U22">
-        <v>238.5</v>
+        <v>179.4</v>
       </c>
       <c r="V22">
-        <v>151.4</v>
+        <v>-66.7</v>
       </c>
       <c r="W22">
-        <v>-22.4</v>
+        <v>-22.3</v>
       </c>
       <c r="X22">
-        <v>-218</v>
+        <v>90.4</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2480,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>87.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>42185</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>79.7</v>
       </c>
       <c r="D23">
-        <v>1106.5</v>
+        <v>1165.0999999999999</v>
       </c>
       <c r="E23">
-        <v>525.5</v>
+        <v>573.5</v>
       </c>
       <c r="F23">
-        <v>377.8</v>
+        <v>410.4</v>
       </c>
       <c r="G23">
-        <v>1481.3</v>
+        <v>1529.9</v>
       </c>
       <c r="H23">
-        <v>4942.8</v>
+        <v>4966.5</v>
       </c>
       <c r="I23">
-        <v>364.1</v>
+        <v>352.6</v>
       </c>
       <c r="J23">
-        <v>1619.2</v>
+        <v>1389.8</v>
       </c>
       <c r="K23">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-60.9</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>684.9</v>
+        <v>682.3</v>
       </c>
       <c r="O23">
-        <v>2773</v>
+        <v>2596.6999999999998</v>
       </c>
       <c r="P23">
-        <v>1622</v>
+        <v>1389.8</v>
       </c>
       <c r="Q23">
-        <v>15.1</v>
+        <v>44.1</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>42185</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2169.8000000000002</v>
+        <v>2369.8000000000002</v>
       </c>
       <c r="U23">
-        <v>253.6</v>
+        <v>223.5</v>
       </c>
       <c r="V23">
-        <v>-6.1</v>
+        <v>122.1</v>
       </c>
       <c r="W23">
-        <v>-24.4</v>
+        <v>-22.3</v>
       </c>
       <c r="X23">
-        <v>59.2</v>
+        <v>596.9</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2563,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>61</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>42277</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>125.2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1297.8</v>
+        <v>1238.8</v>
       </c>
       <c r="E24">
-        <v>569.29999999999995</v>
+        <v>557</v>
       </c>
       <c r="F24">
-        <v>474.7</v>
+        <v>437.1</v>
       </c>
       <c r="G24">
-        <v>1542.6</v>
+        <v>1623.4</v>
       </c>
       <c r="H24">
-        <v>5097.8999999999996</v>
+        <v>5082.2</v>
       </c>
       <c r="I24">
-        <v>366.1</v>
+        <v>353.6</v>
       </c>
       <c r="J24">
-        <v>1600.4</v>
+        <v>1337.6</v>
       </c>
       <c r="K24">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2607,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>717.9</v>
+        <v>777.7</v>
       </c>
       <c r="O24">
-        <v>2815.3</v>
+        <v>2677.9</v>
       </c>
       <c r="P24">
-        <v>1603.6</v>
+        <v>1341.4</v>
       </c>
       <c r="Q24">
-        <v>25.1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>42277</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2282.6</v>
+        <v>2404.3000000000002</v>
       </c>
       <c r="U24">
-        <v>278.7</v>
+        <v>350.6</v>
       </c>
       <c r="V24">
-        <v>171.1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-24.6</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2646,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>125.2</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>42369</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>123.4</v>
+        <v>87.8</v>
       </c>
       <c r="D25">
-        <v>1279</v>
+        <v>1224.7</v>
       </c>
       <c r="E25">
-        <v>568.79999999999995</v>
+        <v>502.6</v>
       </c>
       <c r="F25">
-        <v>478</v>
+        <v>422.9</v>
       </c>
       <c r="G25">
-        <v>1539.7</v>
+        <v>1418</v>
       </c>
       <c r="H25">
-        <v>5212.6000000000004</v>
+        <v>4875.7</v>
       </c>
       <c r="I25">
-        <v>361.9</v>
+        <v>344.2</v>
       </c>
       <c r="J25">
-        <v>1585.8</v>
+        <v>1168.7</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2690,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>776.7</v>
+        <v>757.9</v>
       </c>
       <c r="O25">
-        <v>2852.4</v>
+        <v>2421.9</v>
       </c>
       <c r="P25">
-        <v>1585.8</v>
+        <v>1169.5</v>
       </c>
       <c r="Q25">
-        <v>-0.1</v>
+        <v>-112.1</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>42369</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="T25">
-        <v>2360.1999999999998</v>
+        <v>2453.8000000000002</v>
       </c>
       <c r="U25">
-        <v>278.60000000000002</v>
+        <v>238.5</v>
       </c>
       <c r="V25">
-        <v>215.6</v>
+        <v>151.4</v>
       </c>
       <c r="W25">
-        <v>-23.3</v>
+        <v>-22.4</v>
       </c>
       <c r="X25">
-        <v>-35.700000000000003</v>
+        <v>-218</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,81 +2729,81 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>123.4</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>42460</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>103.6</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>1301.5999999999999</v>
+        <v>1106.5</v>
       </c>
       <c r="E26">
-        <v>550.70000000000005</v>
+        <v>525.5</v>
       </c>
       <c r="F26">
-        <v>478.6</v>
+        <v>377.8</v>
       </c>
       <c r="G26">
-        <v>1445.2</v>
+        <v>1481.3</v>
       </c>
       <c r="H26">
-        <v>5128.5</v>
+        <v>4942.8</v>
       </c>
       <c r="I26">
-        <v>393.8</v>
+        <v>364.1</v>
       </c>
       <c r="J26">
-        <v>1431.1</v>
+        <v>1619.2</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-60.9</v>
       </c>
       <c r="N26">
-        <v>842.8</v>
+        <v>684.9</v>
       </c>
       <c r="O26">
-        <v>2765.5</v>
+        <v>2773</v>
       </c>
       <c r="P26">
-        <v>1431.1</v>
+        <v>1622</v>
       </c>
       <c r="Q26">
-        <v>-27.1</v>
+        <v>15.1</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>42460</v>
       </c>
       <c r="S26">
-        <v>22700</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2363</v>
+        <v>2169.8000000000002</v>
       </c>
       <c r="U26">
-        <v>251.5</v>
+        <v>253.6</v>
       </c>
       <c r="V26">
-        <v>269.89999999999998</v>
+        <v>-6.1</v>
       </c>
       <c r="W26">
-        <v>-25.9</v>
+        <v>-24.4</v>
       </c>
       <c r="X26">
-        <v>-240.9</v>
+        <v>59.2</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2812,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>103.6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>42551</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>77.400000000000006</v>
+        <v>125.2</v>
       </c>
       <c r="D27">
-        <v>1186.8</v>
+        <v>1297.8</v>
       </c>
       <c r="E27">
-        <v>564.9</v>
+        <v>569.29999999999995</v>
       </c>
       <c r="F27">
-        <v>414.1</v>
+        <v>474.7</v>
       </c>
       <c r="G27">
-        <v>1456.1</v>
+        <v>1542.6</v>
       </c>
       <c r="H27">
-        <v>5134.1000000000004</v>
+        <v>5097.8999999999996</v>
       </c>
       <c r="I27">
-        <v>378.9</v>
+        <v>366.1</v>
       </c>
       <c r="J27">
-        <v>1491.5</v>
+        <v>1600.4</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>707.8</v>
+        <v>717.9</v>
       </c>
       <c r="O27">
-        <v>2703.4</v>
+        <v>2815.3</v>
       </c>
       <c r="P27">
-        <v>1491.5</v>
+        <v>1603.6</v>
       </c>
       <c r="Q27">
-        <v>-40.700000000000003</v>
+        <v>25.1</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>42551</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2430.6999999999998</v>
+        <v>2282.6</v>
       </c>
       <c r="U27">
-        <v>210.8</v>
+        <v>278.7</v>
       </c>
       <c r="V27">
-        <v>-17.899999999999999</v>
+        <v>171.1</v>
       </c>
       <c r="W27">
-        <v>-27.6</v>
+        <v>-24.6</v>
       </c>
       <c r="X27">
-        <v>6</v>
+        <v>-33</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +2895,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>77.400000000000006</v>
+        <v>125.2</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>42643</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>137.69999999999999</v>
+        <v>123.4</v>
       </c>
       <c r="D28">
-        <v>1365.4</v>
+        <v>1279</v>
       </c>
       <c r="E28">
-        <v>595.70000000000005</v>
+        <v>568.79999999999995</v>
       </c>
       <c r="F28">
-        <v>513.29999999999995</v>
+        <v>478</v>
       </c>
       <c r="G28">
-        <v>1553.1</v>
+        <v>1539.7</v>
       </c>
       <c r="H28">
-        <v>5253.4</v>
+        <v>5212.6000000000004</v>
       </c>
       <c r="I28">
-        <v>397</v>
+        <v>361.9</v>
       </c>
       <c r="J28">
-        <v>1391.9</v>
+        <v>1585.8</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +2939,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>791.1</v>
+        <v>776.7</v>
       </c>
       <c r="O28">
-        <v>2684.7</v>
+        <v>2852.4</v>
       </c>
       <c r="P28">
-        <v>1391.9</v>
+        <v>1585.8</v>
       </c>
       <c r="Q28">
-        <v>41.9</v>
+        <v>-0.1</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>42643</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2568.6999999999998</v>
+        <v>2360.1999999999998</v>
       </c>
       <c r="U28">
-        <v>252.7</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="V28">
-        <v>189.1</v>
+        <v>215.6</v>
       </c>
       <c r="W28">
-        <v>-27.7</v>
+        <v>-23.3</v>
       </c>
       <c r="X28">
-        <v>-121.2</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +2978,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>137.69999999999999</v>
+        <v>123.4</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42735</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>129.5</v>
+        <v>103.6</v>
       </c>
       <c r="D29">
-        <v>1348.6</v>
+        <v>1301.5999999999999</v>
       </c>
       <c r="E29">
-        <v>594.70000000000005</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="F29">
-        <v>505.3</v>
+        <v>478.6</v>
       </c>
       <c r="G29">
-        <v>1598.3</v>
+        <v>1445.2</v>
       </c>
       <c r="H29">
-        <v>5349.3</v>
+        <v>5128.5</v>
       </c>
       <c r="I29">
-        <v>392.5</v>
+        <v>393.8</v>
       </c>
       <c r="J29">
-        <v>1462.2</v>
+        <v>1431.1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3022,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>852.5</v>
+        <v>842.8</v>
       </c>
       <c r="O29">
-        <v>2803.4</v>
+        <v>2765.5</v>
       </c>
       <c r="P29">
-        <v>1462.2</v>
+        <v>1431.1</v>
       </c>
       <c r="Q29">
-        <v>24.4</v>
+        <v>-27.1</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42735</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>22700</v>
       </c>
       <c r="T29">
-        <v>2545.9</v>
+        <v>2363</v>
       </c>
       <c r="U29">
-        <v>277.10000000000002</v>
+        <v>251.5</v>
       </c>
       <c r="V29">
-        <v>181.4</v>
+        <v>269.89999999999998</v>
       </c>
       <c r="W29">
-        <v>-27.4</v>
+        <v>-25.9</v>
       </c>
       <c r="X29">
-        <v>-108.3</v>
+        <v>-240.9</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3061,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>129.5</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42825</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>128</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D30">
-        <v>1382.5</v>
+        <v>1186.8</v>
       </c>
       <c r="E30">
-        <v>555.29999999999995</v>
+        <v>564.9</v>
       </c>
       <c r="F30">
-        <v>499.5</v>
+        <v>414.1</v>
       </c>
       <c r="G30">
-        <v>1601.7</v>
+        <v>1456.1</v>
       </c>
       <c r="H30">
-        <v>5511.4</v>
+        <v>5134.1000000000004</v>
       </c>
       <c r="I30">
-        <v>428.8</v>
+        <v>378.9</v>
       </c>
       <c r="J30">
-        <v>1507.6</v>
+        <v>1491.5</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,40 +3102,40 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="N30">
-        <v>906.8</v>
+        <v>707.8</v>
       </c>
       <c r="O30">
-        <v>2910.3</v>
+        <v>2703.4</v>
       </c>
       <c r="P30">
-        <v>1507.6</v>
+        <v>1491.5</v>
       </c>
       <c r="Q30">
-        <v>45.9</v>
+        <v>-40.700000000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42825</v>
       </c>
       <c r="S30">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>2601.1</v>
+        <v>2430.6999999999998</v>
       </c>
       <c r="U30">
-        <v>323</v>
+        <v>210.8</v>
       </c>
       <c r="V30">
-        <v>247.7</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="W30">
         <v>-27.6</v>
       </c>
       <c r="X30">
-        <v>-26.6</v>
+        <v>6</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3144,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>128</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42916</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>75</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="D31">
-        <v>1254.5999999999999</v>
+        <v>1365.4</v>
       </c>
       <c r="E31">
-        <v>631.5</v>
+        <v>595.70000000000005</v>
       </c>
       <c r="F31">
-        <v>439.6</v>
+        <v>513.29999999999995</v>
       </c>
       <c r="G31">
-        <v>1644.5</v>
+        <v>1553.1</v>
       </c>
       <c r="H31">
-        <v>5552</v>
+        <v>5253.4</v>
       </c>
       <c r="I31">
-        <v>417.1</v>
+        <v>397</v>
       </c>
       <c r="J31">
-        <v>1538</v>
+        <v>1391.9</v>
       </c>
       <c r="K31">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-515</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1140.8</v>
+        <v>791.1</v>
       </c>
       <c r="O31">
-        <v>3193.7</v>
+        <v>2684.7</v>
       </c>
       <c r="P31">
-        <v>1888</v>
+        <v>1391.9</v>
       </c>
       <c r="Q31">
-        <v>-78.599999999999994</v>
+        <v>41.9</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42916</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2358.3000000000002</v>
+        <v>2568.6999999999998</v>
       </c>
       <c r="U31">
-        <v>244.4</v>
+        <v>252.7</v>
       </c>
       <c r="V31">
-        <v>-51.9</v>
+        <v>189.1</v>
       </c>
       <c r="W31">
-        <v>-29.6</v>
+        <v>-27.7</v>
       </c>
       <c r="X31">
-        <v>16.2</v>
+        <v>-121.2</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3227,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>75</v>
+        <v>137.69999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>43008</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>129.6</v>
+        <v>129.5</v>
       </c>
       <c r="D32">
-        <v>1429</v>
+        <v>1348.6</v>
       </c>
       <c r="E32">
-        <v>657.5</v>
+        <v>594.70000000000005</v>
       </c>
       <c r="F32">
-        <v>524.1</v>
+        <v>505.3</v>
       </c>
       <c r="G32">
-        <v>1805.5</v>
+        <v>1598.3</v>
       </c>
       <c r="H32">
-        <v>5697.1</v>
+        <v>5349.3</v>
       </c>
       <c r="I32">
-        <v>428.7</v>
+        <v>392.5</v>
       </c>
       <c r="J32">
-        <v>1793.3</v>
+        <v>1462.2</v>
       </c>
       <c r="K32">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3271,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1230.5</v>
+        <v>852.5</v>
       </c>
       <c r="O32">
-        <v>3522.4</v>
+        <v>2803.4</v>
       </c>
       <c r="P32">
-        <v>2143.3000000000002</v>
+        <v>1462.2</v>
       </c>
       <c r="Q32">
-        <v>101.1</v>
+        <v>24.4</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>43008</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2174.6999999999998</v>
+        <v>2545.9</v>
       </c>
       <c r="U32">
-        <v>345.5</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="V32">
-        <v>189.2</v>
+        <v>181.4</v>
       </c>
       <c r="W32">
-        <v>-29</v>
+        <v>-27.4</v>
       </c>
       <c r="X32">
-        <v>-51.4</v>
+        <v>-108.3</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3310,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>129.6</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>43100</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>99.8</v>
+        <v>128</v>
       </c>
       <c r="D33">
-        <v>1380.8</v>
+        <v>1382.5</v>
       </c>
       <c r="E33">
-        <v>635.4</v>
+        <v>555.29999999999995</v>
       </c>
       <c r="F33">
-        <v>493.9</v>
+        <v>499.5</v>
       </c>
       <c r="G33">
-        <v>1890.2</v>
+        <v>1601.7</v>
       </c>
       <c r="H33">
-        <v>6169.7</v>
+        <v>5511.4</v>
       </c>
       <c r="I33">
-        <v>437.7</v>
+        <v>428.8</v>
       </c>
       <c r="J33">
-        <v>1988.4</v>
+        <v>1507.6</v>
       </c>
       <c r="K33">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3354,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1451.6</v>
+        <v>906.8</v>
       </c>
       <c r="O33">
-        <v>3936.1</v>
+        <v>2910.3</v>
       </c>
       <c r="P33">
-        <v>2513.4</v>
+        <v>1507.6</v>
       </c>
       <c r="Q33">
-        <v>52.4</v>
+        <v>45.9</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>43100</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="T33">
-        <v>2233.6</v>
+        <v>2601.1</v>
       </c>
       <c r="U33">
-        <v>389.9</v>
+        <v>323</v>
       </c>
       <c r="V33">
-        <v>206.4</v>
+        <v>247.7</v>
       </c>
       <c r="W33">
-        <v>-28.5</v>
+        <v>-27.6</v>
       </c>
       <c r="X33">
-        <v>342.6</v>
+        <v>-26.6</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,208 +3393,208 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>99.8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>43190</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>85.2</v>
+        <v>75</v>
       </c>
       <c r="D34">
-        <v>1420.7</v>
+        <v>1254.5999999999999</v>
       </c>
       <c r="E34">
-        <v>571.70000000000005</v>
+        <v>631.5</v>
       </c>
       <c r="F34">
-        <v>508.9</v>
+        <v>439.6</v>
       </c>
       <c r="G34">
-        <v>1686.1</v>
+        <v>1644.5</v>
       </c>
       <c r="H34">
-        <v>5964.6</v>
+        <v>5552</v>
       </c>
       <c r="I34">
-        <v>459</v>
+        <v>417.1</v>
       </c>
       <c r="J34">
-        <v>1809</v>
+        <v>1538</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-515</v>
       </c>
       <c r="N34">
-        <v>1492.1</v>
+        <v>1140.8</v>
       </c>
       <c r="O34">
-        <v>3784.6</v>
+        <v>3193.7</v>
       </c>
       <c r="P34">
-        <v>2334</v>
+        <v>1888</v>
       </c>
       <c r="Q34">
-        <v>-127.2</v>
+        <v>-78.599999999999994</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>43190</v>
       </c>
       <c r="S34">
-        <v>25300</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>2180</v>
+        <v>2358.3000000000002</v>
       </c>
       <c r="U34">
-        <v>262.89999999999998</v>
+        <v>244.4</v>
       </c>
       <c r="V34">
-        <v>260.3</v>
+        <v>-51.9</v>
       </c>
       <c r="W34">
-        <v>-28.1</v>
+        <v>-29.6</v>
       </c>
       <c r="X34">
-        <v>-314.2</v>
+        <v>16.2</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-28.7</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>85.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>43281</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>84.7</v>
+        <v>129.6</v>
       </c>
       <c r="D35">
-        <v>1327.9</v>
+        <v>1429</v>
       </c>
       <c r="E35">
-        <v>650.1</v>
+        <v>657.5</v>
       </c>
       <c r="F35">
-        <v>458.8</v>
+        <v>524.1</v>
       </c>
       <c r="G35">
-        <v>1848</v>
+        <v>1805.5</v>
       </c>
       <c r="H35">
-        <v>6289.2</v>
+        <v>5697.1</v>
       </c>
       <c r="I35">
-        <v>442</v>
+        <v>428.7</v>
       </c>
       <c r="J35">
-        <v>2169.6999999999998</v>
+        <v>1793.3</v>
       </c>
       <c r="K35">
         <v>350</v>
       </c>
       <c r="L35">
-        <v>-175</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1238.8</v>
+        <v>1230.5</v>
       </c>
       <c r="O35">
-        <v>4042.1</v>
+        <v>3522.4</v>
       </c>
       <c r="P35">
-        <v>2700.5</v>
+        <v>2143.3000000000002</v>
       </c>
       <c r="Q35">
-        <v>18.2</v>
+        <v>101.1</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>43281</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2247.1</v>
+        <v>2174.6999999999998</v>
       </c>
       <c r="U35">
-        <v>281.2</v>
+        <v>345.5</v>
       </c>
       <c r="V35">
-        <v>-89.7</v>
+        <v>189.2</v>
       </c>
       <c r="W35">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="X35">
-        <v>129.4</v>
+        <v>-51.4</v>
       </c>
       <c r="Y35">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>84.7</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>137.5</v>
+        <v>99.8</v>
       </c>
       <c r="D36">
-        <v>1507.2</v>
+        <v>1380.8</v>
       </c>
       <c r="E36">
-        <v>706.2</v>
+        <v>635.4</v>
       </c>
       <c r="F36">
-        <v>537.6</v>
+        <v>493.9</v>
       </c>
       <c r="G36">
-        <v>1916.9</v>
+        <v>1890.2</v>
       </c>
       <c r="H36">
-        <v>6343.4</v>
+        <v>6169.7</v>
       </c>
       <c r="I36">
-        <v>476.6</v>
+        <v>437.7</v>
       </c>
       <c r="J36">
-        <v>1666</v>
+        <v>1988.4</v>
       </c>
       <c r="K36">
-        <v>749.3</v>
+        <v>525</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3603,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1695.2</v>
+        <v>1451.6</v>
       </c>
       <c r="O36">
-        <v>3998.7</v>
+        <v>3936.1</v>
       </c>
       <c r="P36">
-        <v>2594.9</v>
+        <v>2513.4</v>
       </c>
       <c r="Q36">
-        <v>-5.0999999999999996</v>
+        <v>52.4</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2344.6999999999998</v>
+        <v>2233.6</v>
       </c>
       <c r="U36">
-        <v>276.3</v>
+        <v>389.9</v>
       </c>
       <c r="V36">
-        <v>201.7</v>
+        <v>206.4</v>
       </c>
       <c r="W36">
-        <v>-30.7</v>
+        <v>-28.5</v>
       </c>
       <c r="X36">
-        <v>-182.4</v>
+        <v>342.6</v>
       </c>
       <c r="Y36">
-        <v>146.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>137.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>43465</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>105.6</v>
+        <v>85.2</v>
       </c>
       <c r="D37">
-        <v>1459</v>
+        <v>1420.7</v>
       </c>
       <c r="E37">
-        <v>640.1</v>
+        <v>571.70000000000005</v>
       </c>
       <c r="F37">
-        <v>524.20000000000005</v>
+        <v>508.9</v>
       </c>
       <c r="G37">
-        <v>1906.7</v>
+        <v>1686.1</v>
       </c>
       <c r="H37">
-        <v>6285.6</v>
+        <v>5964.6</v>
       </c>
       <c r="I37">
-        <v>436.5</v>
+        <v>459</v>
       </c>
       <c r="J37">
-        <v>1949</v>
+        <v>1809</v>
       </c>
       <c r="K37">
-        <v>399.5</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,247 +3686,247 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1376.6</v>
+        <v>1492.1</v>
       </c>
       <c r="O37">
-        <v>3948.9</v>
+        <v>3784.6</v>
       </c>
       <c r="P37">
-        <v>2521.3000000000002</v>
+        <v>2334</v>
       </c>
       <c r="Q37">
-        <v>59.5</v>
+        <v>-127.2</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>43465</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>25300</v>
       </c>
       <c r="T37">
-        <v>2336.6999999999998</v>
+        <v>2180</v>
       </c>
       <c r="U37">
-        <v>336.2</v>
+        <v>262.89999999999998</v>
       </c>
       <c r="V37">
-        <v>241.8</v>
+        <v>260.3</v>
       </c>
       <c r="W37">
-        <v>-30.6</v>
+        <v>-28.1</v>
       </c>
       <c r="X37">
-        <v>-148.9</v>
+        <v>-314.2</v>
       </c>
       <c r="Y37">
-        <v>139.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-28.7</v>
       </c>
       <c r="AA37">
-        <v>105.6</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>43555</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>104.1</v>
+        <v>84.7</v>
       </c>
       <c r="D38">
-        <v>1470.5</v>
+        <v>1327.9</v>
       </c>
       <c r="E38">
-        <v>624.79999999999995</v>
+        <v>650.1</v>
       </c>
       <c r="F38">
-        <v>537.6</v>
+        <v>458.8</v>
       </c>
       <c r="G38">
-        <v>1898.2</v>
+        <v>1848</v>
       </c>
       <c r="H38">
-        <v>6291.3</v>
+        <v>6289.2</v>
       </c>
       <c r="I38">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="J38">
-        <v>1784.6</v>
+        <v>2169.6999999999998</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-175</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="N38">
-        <v>1409.3</v>
+        <v>1238.8</v>
       </c>
       <c r="O38">
-        <v>3863.5</v>
+        <v>4042.1</v>
       </c>
       <c r="P38">
-        <v>2324.1</v>
+        <v>2700.5</v>
       </c>
       <c r="Q38">
-        <v>51.6</v>
+        <v>18.2</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>43555</v>
       </c>
       <c r="S38">
-        <v>24700</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>2427.8000000000002</v>
+        <v>2247.1</v>
       </c>
       <c r="U38">
-        <v>387.9</v>
+        <v>281.2</v>
       </c>
       <c r="V38">
-        <v>283.39999999999998</v>
+        <v>-89.7</v>
       </c>
       <c r="W38">
-        <v>-30.7</v>
+        <v>-31</v>
       </c>
       <c r="X38">
-        <v>-187.8</v>
+        <v>129.4</v>
       </c>
       <c r="Y38">
-        <v>139.80000000000001</v>
+        <v>149</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>104.1</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>43646</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>109.1</v>
+        <v>137.5</v>
       </c>
       <c r="D39">
-        <v>1402.7</v>
+        <v>1507.2</v>
       </c>
       <c r="E39">
-        <v>678.2</v>
+        <v>706.2</v>
       </c>
       <c r="F39">
-        <v>493.2</v>
+        <v>537.6</v>
       </c>
       <c r="G39">
-        <v>1914</v>
+        <v>1916.9</v>
       </c>
       <c r="H39">
-        <v>6300.1</v>
+        <v>6343.4</v>
       </c>
       <c r="I39">
-        <v>426.4</v>
+        <v>476.6</v>
       </c>
       <c r="J39">
-        <v>2035.2</v>
+        <v>1666</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>749.3</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1246.0999999999999</v>
+        <v>1695.2</v>
       </c>
       <c r="O39">
-        <v>3942.2</v>
+        <v>3998.7</v>
       </c>
       <c r="P39">
-        <v>2569.1999999999998</v>
+        <v>2594.9</v>
       </c>
       <c r="Q39">
-        <v>-28.5</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>43646</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2357.9</v>
+        <v>2344.6999999999998</v>
       </c>
       <c r="U39">
-        <v>359.7</v>
+        <v>276.3</v>
       </c>
       <c r="V39">
-        <v>-13.8</v>
+        <v>201.7</v>
       </c>
       <c r="W39">
-        <v>-33.5</v>
+        <v>-30.7</v>
       </c>
       <c r="X39">
-        <v>77.3</v>
+        <v>-182.4</v>
       </c>
       <c r="Y39">
-        <v>134.1</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="Z39">
-        <v>-51.6</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>109.1</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43738</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>115.8</v>
+        <v>105.6</v>
       </c>
       <c r="D40">
-        <v>1375.8</v>
+        <v>1459</v>
       </c>
       <c r="E40">
-        <v>657.7</v>
+        <v>640.1</v>
       </c>
       <c r="F40">
-        <v>482.9</v>
+        <v>524.20000000000005</v>
       </c>
       <c r="G40">
-        <v>1957.3</v>
+        <v>1906.7</v>
       </c>
       <c r="H40">
-        <v>6332.3</v>
+        <v>6285.6</v>
       </c>
       <c r="I40">
-        <v>463.9</v>
+        <v>436.5</v>
       </c>
       <c r="J40">
-        <v>2245.9</v>
+        <v>1949</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>399.5</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,78 +3935,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>952.8</v>
+        <v>1376.6</v>
       </c>
       <c r="O40">
-        <v>3869.2</v>
+        <v>3948.9</v>
       </c>
       <c r="P40">
-        <v>2383.4</v>
+        <v>2521.3000000000002</v>
       </c>
       <c r="Q40">
-        <v>38.6</v>
+        <v>59.5</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43738</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2463.1</v>
+        <v>2336.6999999999998</v>
       </c>
       <c r="U40">
-        <v>398.4</v>
+        <v>336.2</v>
       </c>
       <c r="V40">
-        <v>274.3</v>
+        <v>241.8</v>
       </c>
       <c r="W40">
-        <v>-33.1</v>
+        <v>-30.6</v>
       </c>
       <c r="X40">
-        <v>-219.5</v>
+        <v>-148.9</v>
       </c>
       <c r="Y40">
-        <v>137.5</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="Z40">
-        <v>-7.8</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>115.8</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43830</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>164.6</v>
+        <v>104.1</v>
       </c>
       <c r="D41">
-        <v>1652.1</v>
+        <v>1470.5</v>
       </c>
       <c r="E41">
-        <v>765.2</v>
+        <v>624.79999999999995</v>
       </c>
       <c r="F41">
-        <v>580.6</v>
+        <v>537.6</v>
       </c>
       <c r="G41">
-        <v>2138</v>
+        <v>1898.2</v>
       </c>
       <c r="H41">
-        <v>6519</v>
+        <v>6291.3</v>
       </c>
       <c r="I41">
-        <v>544.1</v>
+        <v>460</v>
       </c>
       <c r="J41">
-        <v>2086.5</v>
+        <v>1784.6</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4018,377 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1135</v>
+        <v>1409.3</v>
       </c>
       <c r="O41">
-        <v>3890.4</v>
+        <v>3863.5</v>
       </c>
       <c r="P41">
-        <v>2225.6</v>
+        <v>2324.1</v>
       </c>
       <c r="Q41">
-        <v>65.7</v>
+        <v>51.6</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43830</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>24700</v>
       </c>
       <c r="T41">
-        <v>2628.6</v>
+        <v>2427.8000000000002</v>
       </c>
       <c r="U41">
-        <v>464.5</v>
+        <v>387.9</v>
       </c>
       <c r="V41">
-        <v>246.3</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="W41">
-        <v>-33.299999999999997</v>
+        <v>-30.7</v>
       </c>
       <c r="X41">
-        <v>-166.6</v>
+        <v>-187.8</v>
       </c>
       <c r="Y41">
-        <v>139.1</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>164.6</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>109.1</v>
+      </c>
+      <c r="D42">
+        <v>1402.7</v>
+      </c>
+      <c r="E42">
+        <v>678.2</v>
+      </c>
+      <c r="F42">
+        <v>493.2</v>
+      </c>
+      <c r="G42">
+        <v>1914</v>
+      </c>
+      <c r="H42">
+        <v>6300.1</v>
+      </c>
+      <c r="I42">
+        <v>426.4</v>
+      </c>
+      <c r="J42">
+        <v>2035.2</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-130</v>
+      </c>
+      <c r="N42">
+        <v>1246.0999999999999</v>
+      </c>
+      <c r="O42">
+        <v>3942.2</v>
+      </c>
+      <c r="P42">
+        <v>2569.1999999999998</v>
+      </c>
+      <c r="Q42">
+        <v>-28.5</v>
+      </c>
+      <c r="R42">
+        <v>43921</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2357.9</v>
+      </c>
+      <c r="U42">
+        <v>359.7</v>
+      </c>
+      <c r="V42">
+        <v>-13.8</v>
+      </c>
+      <c r="W42">
+        <v>-33.5</v>
+      </c>
+      <c r="X42">
+        <v>77.3</v>
+      </c>
+      <c r="Y42">
+        <v>134.1</v>
+      </c>
+      <c r="Z42">
+        <v>-51.6</v>
+      </c>
+      <c r="AA42">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>115.8</v>
+      </c>
+      <c r="D43">
+        <v>1375.8</v>
+      </c>
+      <c r="E43">
+        <v>657.7</v>
+      </c>
+      <c r="F43">
+        <v>482.9</v>
+      </c>
+      <c r="G43">
+        <v>1957.3</v>
+      </c>
+      <c r="H43">
+        <v>6332.3</v>
+      </c>
+      <c r="I43">
+        <v>463.9</v>
+      </c>
+      <c r="J43">
+        <v>2245.9</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>952.8</v>
+      </c>
+      <c r="O43">
+        <v>3869.2</v>
+      </c>
+      <c r="P43">
+        <v>2383.4</v>
+      </c>
+      <c r="Q43">
+        <v>38.6</v>
+      </c>
+      <c r="R43">
+        <v>44012</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2463.1</v>
+      </c>
+      <c r="U43">
+        <v>398.4</v>
+      </c>
+      <c r="V43">
+        <v>274.3</v>
+      </c>
+      <c r="W43">
+        <v>-33.1</v>
+      </c>
+      <c r="X43">
+        <v>-219.5</v>
+      </c>
+      <c r="Y43">
+        <v>137.5</v>
+      </c>
+      <c r="Z43">
+        <v>-7.8</v>
+      </c>
+      <c r="AA43">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>164.6</v>
+      </c>
+      <c r="D44">
+        <v>1652.1</v>
+      </c>
+      <c r="E44">
+        <v>765.2</v>
+      </c>
+      <c r="F44">
+        <v>580.6</v>
+      </c>
+      <c r="G44">
+        <v>2138</v>
+      </c>
+      <c r="H44">
+        <v>6519</v>
+      </c>
+      <c r="I44">
+        <v>544.1</v>
+      </c>
+      <c r="J44">
+        <v>2086.5</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1135</v>
+      </c>
+      <c r="O44">
+        <v>3890.4</v>
+      </c>
+      <c r="P44">
+        <v>2225.6</v>
+      </c>
+      <c r="Q44">
+        <v>65.7</v>
+      </c>
+      <c r="R44">
+        <v>44104</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2628.6</v>
+      </c>
+      <c r="U44">
+        <v>464.5</v>
+      </c>
+      <c r="V44">
+        <v>246.3</v>
+      </c>
+      <c r="W44">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="X44">
+        <v>-166.6</v>
+      </c>
+      <c r="Y44">
+        <v>139.1</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
         <v>163.6</v>
       </c>
-      <c r="D42">
+      <c r="D45">
         <v>1659.7</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>734.9</v>
       </c>
-      <c r="F42">
+      <c r="F45">
         <v>618.1</v>
       </c>
-      <c r="G42">
+      <c r="G45">
         <v>2208.5</v>
       </c>
-      <c r="H42">
+      <c r="H45">
         <v>7358.7</v>
       </c>
-      <c r="I42">
+      <c r="I45">
         <v>620.5</v>
       </c>
-      <c r="J42">
+      <c r="J45">
         <v>2572.1999999999998</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>1345.1</v>
       </c>
-      <c r="O42">
+      <c r="O45">
         <v>4583.2</v>
       </c>
-      <c r="P42">
+      <c r="P45">
         <v>2751.2</v>
       </c>
-      <c r="Q42">
+      <c r="Q45">
         <v>-45.7</v>
       </c>
-      <c r="R42">
+      <c r="R45">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S45">
         <v>27505</v>
       </c>
-      <c r="T42">
+      <c r="T45">
         <v>2775.5</v>
       </c>
-      <c r="U42">
+      <c r="U45">
         <v>419.1</v>
       </c>
-      <c r="V42">
+      <c r="V45">
         <v>318.89999999999998</v>
       </c>
-      <c r="W42">
+      <c r="W45">
         <v>-33.4</v>
       </c>
-      <c r="X42">
+      <c r="X45">
         <v>420.4</v>
       </c>
-      <c r="Y42">
+      <c r="Y45">
         <v>140.5</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
         <v>163.6</v>
       </c>
     </row>
